--- a/target/classes/TestData.xlsx
+++ b/target/classes/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IT001\eclipse-workspace\RestassurredAssignment\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8396A6CD-C623-43E1-AC1F-1E39A73EA1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDE5E4F-7949-44E7-8792-BF6758AE3CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2265" yWindow="1260" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>{"user":{"first_name":"dfsdfsdfsd","last_name":"","email":"uniqueEmail","password":"123456789","phone_number":"uniquePhone","user_type":"User","currency_id":3}}</t>
-  </si>
-  <si>
-    <t>https://api-staging-builder.engineer.ai/users</t>
   </si>
 </sst>
 </file>
@@ -490,7 +487,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -524,17 +521,9 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="B4" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{688B14A8-E838-4FF4-BCC0-5DDCE0499DAD}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>